--- a/DataDrivenFramework/src/com/testdata/TestAutomationTestData.xlsx
+++ b/DataDrivenFramework/src/com/testdata/TestAutomationTestData.xlsx
@@ -1,20 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{03278EAB-CCE5-46D2-9299-ADFF55FB7F50}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="24300" windowHeight="13800" activeTab="1" xr2:uid="{485B8661-B201-4126-A792-9023A5361C01}"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14385" windowHeight="6480"/>
   </bookViews>
   <sheets>
     <sheet name="RegTestData" sheetId="1" r:id="rId1"/>
-    <sheet name="Homepage" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabledata" r:id="rId6" sheetId="3"/>
+    <sheet name="Tabledata" r:id="rId5" sheetId="2"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:S24"/>
-  <extLst>
+  <calcPr calcId="124519"/>
+  <oleSize ref="A1:L20"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -23,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>firstname</t>
   </si>
@@ -118,9 +116,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,7 +236,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -290,7 +288,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -491,20 +489,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F96E8BD-9233-4027-8FE4-9777CC4B301C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" customWidth="true" width="13.7109375" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="24.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -544,7 +542,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -564,7 +562,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -584,7 +582,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -606,10 +604,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{49B7A971-5059-49EA-98A7-3E45EF5D0CB9}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{85B2CB14-FA0A-4295-9CB5-113ED7E879B7}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{3B138417-0DDF-4326-93E0-383EB2607345}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{FA96C642-6CC1-4481-9092-D4432BFCF43C}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -617,18 +615,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:A7"/>
   <sheetViews>
